--- a/clientTestData/AkzoNobelCoatingsInc_01012021_Primary-1_10072021_{Automation}_{REGISTERED}.xlsx
+++ b/clientTestData/AkzoNobelCoatingsInc_01012021_Primary-1_10072021_{Automation}_{REGISTERED}.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulaxmira/Documents/RallyMochaFramework/testdata/clientTestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulaxmira/Documents/Projects/RallyMochaFramework/clientTestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7210929A-962B-AF4A-8DB7-61A4DF5D0ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9428D2-4AAF-D044-8256-0079A562F010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>ENGA_UHC_AKZONOBELCOATINGS_UPRFLEXAC_DP_NONE</t>
   </si>
   <si>
-    <t>uat_ZURTfUWQ@rally.mailinator.com</t>
-  </si>
-  <si>
     <t>Testing123!</t>
   </si>
   <si>
@@ -164,13 +161,16 @@
   </si>
   <si>
     <t>AkzoNobel Coatings, Inc</t>
+  </si>
+  <si>
+    <t>uat_ZURTfUW@rally.mailinator.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +180,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,16 +237,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -677,7 +688,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
@@ -705,14 +716,14 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -730,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -763,10 +774,10 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>32</v>
@@ -778,16 +789,16 @@
         <v>42644401</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
@@ -811,26 +822,29 @@
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{08050CFF-8432-C945-B419-D3DA469FC456}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>